--- a/biology/Médecine/Carbone_11/Carbone_11.xlsx
+++ b/biology/Médecine/Carbone_11/Carbone_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le carbone 11, noté 11C, est l'isotope du carbone dont le nombre de masse est égal à 11 : son noyau atomique compte 6 protons et 5 neutrons avec un spin 3/2- pour une masse atomique de 11,011 432 6 g/mol. Il est caractérisé par un excès de masse de 10 649,4 keV et une énergie de liaison nucléaire par nucléon de 6 676,45 keV[1]. Il s'agit d'un radioisotope qui donne du bore 11 par désintégration β+, et par capture électronique dans 0,19 à 0,23 % des cas[3],[4] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le carbone 11, noté 11C, est l'isotope du carbone dont le nombre de masse est égal à 11 : son noyau atomique compte 6 protons et 5 neutrons avec un spin 3/2- pour une masse atomique de 11,011 432 6 g/mol. Il est caractérisé par un excès de masse de 10 649,4 keV et une énergie de liaison nucléaire par nucléon de 6 676,45 keV. Il s'agit d'un radioisotope qui donne du bore 11 par désintégration β+, et par capture électronique dans 0,19 à 0,23 % des cas, :
 116C ⟶ 115B + e+ + νe + 0,96 MeV ;
 116C + e− ⟶ 115B + e+ + 1,98 MeV.
 On l'obtient par accélération de protons dans un cyclotron par la réaction :
 147N + 11H ⟶ 116C + 42He.
-Le carbone 11 est couramment utilisé comme radiotraceur en tomographie par émission de positrons. On le trouve par exemple dans des radioligands tels que 11C-WAY-100635 (en), 11C-kétansérine (en)[5], 11C-DASB (en) pour le transporteur de la sérotonine[6], [11C]flumazénil pour récepteurs GABAA[7], ou encore [11C]raclopride pour les récepteurs de la dopamine D2 (en)[8].
+Le carbone 11 est couramment utilisé comme radiotraceur en tomographie par émission de positrons. On le trouve par exemple dans des radioligands tels que 11C-WAY-100635 (en), 11C-kétansérine (en), 11C-DASB (en) pour le transporteur de la sérotonine, [11C]flumazénil pour récepteurs GABAA, ou encore [11C]raclopride pour les récepteurs de la dopamine D2 (en).
 </t>
         </is>
       </c>
